--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/VO/01- variation order for Fire Hose cabinet.xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/VO/01- variation order for Fire Hose cabinet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7AC8C3-2677-4368-B5F3-096C090C88DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33728E0C-DD13-4F80-B3A6-7BBBE7D5A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,23 +72,6 @@
   </si>
   <si>
     <t>Over Head profit 28%</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Double Vertical Fire Hose Reel Cabinet with architrave, Recessed Type, Solid Door, 
-Complete Mild Steel, Material Thickness: 1.5mm - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Make: Naffco</t>
-    </r>
   </si>
   <si>
     <t>Note: Vendor quotation attached</t>
@@ -113,6 +96,23 @@
   </si>
   <si>
     <t>Supply &amp; installation of Fire Hose Cabinet and Fire reel.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Double Vertical Fire Hose Reel Cabinet with architrave, Recessed Type, Solid Door, 
+Complete Mild Steel, Material Thickness: 1.5mm - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make: Local</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>48260</xdr:colOff>
+      <xdr:colOff>219710</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -548,23 +548,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>401254</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>163135</xdr:rowOff>
+      <xdr:colOff>248914</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>210720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9553EB16-F72D-89AD-B865-A5E9CFB130BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE52DD41-01E1-D542-36E2-52E06DF9362E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -580,8 +580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9153525" y="2095500"/>
-          <a:ext cx="8630854" cy="8668960"/>
+          <a:off x="8705850" y="1495425"/>
+          <a:ext cx="9059539" cy="8383170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,20 +882,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -912,7 +912,7 @@
       </c>
       <c r="B13" s="33"/>
       <c r="I13" s="10">
-        <v>45588</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -968,7 +968,7 @@
     </row>
     <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -1014,21 +1014,21 @@
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="16">
-        <v>118944</v>
+        <v>141600</v>
       </c>
       <c r="D23" s="16">
         <v>25000</v>
       </c>
       <c r="E23" s="17">
         <f>SUM(C23+D23)*28%</f>
-        <v>40304.320000000007</v>
+        <v>46648.000000000007</v>
       </c>
       <c r="F23" s="17">
         <f>E23+D23+C23</f>
-        <v>184248.32000000001</v>
+        <v>213248</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>14</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="I23" s="16">
         <f>H23*F23</f>
-        <v>184248.32000000001</v>
+        <v>213248</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,21 +1046,21 @@
         <v>1</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" s="16">
-        <v>155760</v>
+        <v>153400</v>
       </c>
       <c r="D24" s="16">
         <v>25000</v>
       </c>
       <c r="E24" s="17">
         <f>SUM(C24+D24)*28%</f>
-        <v>50612.800000000003</v>
+        <v>49952.000000000007</v>
       </c>
       <c r="F24" s="17">
         <f>E24+D24+C24</f>
-        <v>231372.79999999999</v>
+        <v>228352</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>14</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I24" s="16">
         <f>H24*F24</f>
-        <v>231372.79999999999</v>
+        <v>228352</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
       <c r="H25" s="36"/>
       <c r="I25" s="28">
         <f>SUM(I23:I24)</f>
-        <v>415621.12</v>
+        <v>441600</v>
       </c>
       <c r="K25" s="23"/>
     </row>
@@ -1102,26 +1102,26 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="5"/>
       <c r="J30">
-        <v>100800</v>
+        <v>120000</v>
       </c>
       <c r="K30" s="1">
         <f>J30*1.18</f>
-        <v>118944</v>
+        <v>141600</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="5"/>
       <c r="J31">
-        <v>132000</v>
+        <v>130000</v>
       </c>
       <c r="K31" s="1">
         <f>J31*1.18</f>
-        <v>155760</v>
+        <v>153400</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       <c r="B32" s="5"/>
       <c r="K32" s="9">
         <f>SUM(K30:K31)</f>
-        <v>274704</v>
+        <v>295000</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/VO/01- variation order for Fire Hose cabinet.xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/VO/01- variation order for Fire Hose cabinet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33728E0C-DD13-4F80-B3A6-7BBBE7D5A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7466D95E-3EF9-48F0-9088-ABAC4E594522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Project: Sana Safinas Dolmen Mall Lahore</t>
-  </si>
-  <si>
     <t>Variation # 1</t>
   </si>
   <si>
@@ -77,8 +74,11 @@
     <t>Note: Vendor quotation attached</t>
   </si>
   <si>
+    <t>Supply &amp; installation of Fire Hose Cabinet and Fire reel.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Supply of Fire Hose Reel 1" x 30 Mtr. Cabinet Mounted, Swinging Manual with Plastic Nozzle,  Conforming to BS EN 671-1:2012, CE0086, Kitemark/LPCB Approved, Model: 25 NFH 020M - Naffco
+      <t xml:space="preserve">Supply of Fire Hose Reel 1" x 30 Mtr. Cabinet Mounted, Swinging Automatic with Plastic Nozzle,  Conforming to BS EN 671-1:2012, CE0086, Kitemark/LPCB Approved, Model: 25 NFH 020A - Naffco
 1" Lock Shield Valve, LPCB Approved, Model: NLSV-25 - Naffco
 1" Pressure Reducing Valve, Kitemark approved, Model: </t>
     </r>
@@ -95,12 +95,9 @@
     </r>
   </si>
   <si>
-    <t>Supply &amp; installation of Fire Hose Cabinet and Fire reel.</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Double Vertical Fire Hose Reel Cabinet with architrave, Recessed Type, Solid Door, 
-Complete Mild Steel, Material Thickness: 1.5mm - </t>
+      <t xml:space="preserve">Fire Hose Reel Cabinet with architrave, Recessed Type, Solid Door, Front Stainless
+Steel Back Box Mild Steel, Material Thickness: 1.5mm - </t>
     </r>
     <r>
       <rPr>
@@ -113,6 +110,9 @@
       </rPr>
       <t>Make: Local</t>
     </r>
+  </si>
+  <si>
+    <t>Project: Sana Safinaz Dolmen Mall Lahore</t>
   </si>
 </sst>
 </file>
@@ -549,22 +549,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>248914</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>210720</xdr:rowOff>
+      <xdr:colOff>163179</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE52DD41-01E1-D542-36E2-52E06DF9362E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10DCA98-6241-BD54-8104-E4A160E31C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -580,8 +580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705850" y="1495425"/>
-          <a:ext cx="9059539" cy="8383170"/>
+          <a:off x="8782050" y="504825"/>
+          <a:ext cx="8983329" cy="8316486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +912,7 @@
       </c>
       <c r="B13" s="33"/>
       <c r="I13" s="10">
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" s="29"/>
     </row>
@@ -955,7 +955,7 @@
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="20" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -994,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>13</v>
@@ -1041,26 +1041,26 @@
         <v>213248</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="16">
-        <v>153400</v>
+        <v>94400</v>
       </c>
       <c r="D24" s="16">
         <v>25000</v>
       </c>
       <c r="E24" s="17">
         <f>SUM(C24+D24)*28%</f>
-        <v>49952.000000000007</v>
+        <v>33432</v>
       </c>
       <c r="F24" s="17">
         <f>E24+D24+C24</f>
-        <v>228352</v>
+        <v>152832</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>14</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I24" s="16">
         <f>H24*F24</f>
-        <v>228352</v>
+        <v>152832</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="27" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
       <c r="H25" s="36"/>
       <c r="I25" s="28">
         <f>SUM(I23:I24)</f>
-        <v>441600</v>
+        <v>366080</v>
       </c>
       <c r="K25" s="23"/>
     </row>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5"/>
       <c r="J30">
@@ -1117,11 +1117,11 @@
       <c r="A31" s="26"/>
       <c r="B31" s="5"/>
       <c r="J31">
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="K31" s="1">
         <f>J31*1.18</f>
-        <v>153400</v>
+        <v>94400</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       <c r="B32" s="5"/>
       <c r="K32" s="9">
         <f>SUM(K30:K31)</f>
-        <v>295000</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
